--- a/InsightTest1/src/main/java/testdata/skillsmart-employee-template.xlsx
+++ b/InsightTest1/src/main/java/testdata/skillsmart-employee-template.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="1620" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
-    <sheet name="Lookups" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Lookups" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Gender</t>
   </si>
@@ -54,6 +47,21 @@
     <t>White</t>
   </si>
   <si>
+    <t>Street1</t>
+  </si>
+  <si>
+    <t>Street2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
     <t>Salaried</t>
   </si>
   <si>
@@ -63,41 +71,81 @@
     <t>No</t>
   </si>
   <si>
+    <t>EmployeeId</t>
+  </si>
+  <si>
     <t>Native Hawaiian or Other Pacific Islander</t>
   </si>
   <si>
+    <t>Phone</t>
+  </si>
+  <si>
     <t>SSN</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>EmployeeId</t>
-  </si>
-  <si>
-    <t>Ne1,Imp</t>
-  </si>
-  <si>
-    <t>1785</t>
-  </si>
-  <si>
-    <t>75835466</t>
-  </si>
-  <si>
-    <t>Ne1, Imp</t>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>20284 street1</t>
+  </si>
+  <si>
+    <t>State St</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Vet Status</t>
+  </si>
+  <si>
+    <t>chicago</t>
+  </si>
+  <si>
+    <t>50804</t>
+  </si>
+  <si>
+    <t>214-363-5474</t>
+  </si>
+  <si>
+    <t>123-363-5478</t>
+  </si>
+  <si>
+    <t>Meena, suresh</t>
+  </si>
+  <si>
+    <t>Mounish, Anish</t>
+  </si>
+  <si>
+    <t>3122</t>
+  </si>
+  <si>
+    <t>4758</t>
+  </si>
+  <si>
+    <t>1545481242</t>
+  </si>
+  <si>
+    <t>361441242</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0288D1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,14 +188,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -157,9 +211,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -420,7 +471,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -428,40 +479,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="21" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="22.7109375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="I1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
+      <c r="L1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" deleteRows="0" selectLockedCells="1" sort="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Gender">
+          <x14:formula1>
+            <xm:f>Lookups!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>I1:I1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Ethnicity">
+          <x14:formula1>
+            <xm:f>Lookups!$C$2:$C$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>J1:J1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -470,15 +637,15 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,10 +655,10 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -499,10 +666,10 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -510,83 +677,32 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
